--- a/references/Experiment_setup.xlsx
+++ b/references/Experiment_setup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Caroline\Documents\Master-Thesis\Fairness-oriented-interpretability-of-predictive-algorithms\references\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28FDF4B6-1882-4DF2-AA8C-4961848E2FFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F374F28B-B89A-4013-AFB1-7F518E50C212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{08E31009-6740-4219-8040-B32DB69AA2DD}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="28">
   <si>
     <t>Weight_decay</t>
   </si>
@@ -48,21 +48,9 @@
     <t>0.01</t>
   </si>
   <si>
-    <t>0.1</t>
-  </si>
-  <si>
     <t>0.001</t>
   </si>
   <si>
-    <t>0.25</t>
-  </si>
-  <si>
-    <t>0.0001</t>
-  </si>
-  <si>
-    <t>0.5</t>
-  </si>
-  <si>
     <t>Model_Name</t>
   </si>
   <si>
@@ -96,9 +84,6 @@
     <t>ADAM_wd_1e-3</t>
   </si>
   <si>
-    <t>ADAM_wd_1e-4</t>
-  </si>
-  <si>
     <t>ADAM_wd=1e-2_dp=0.1</t>
   </si>
   <si>
@@ -111,30 +96,12 @@
     <t>ADAM_wd=1e-3_dp=0.25</t>
   </si>
   <si>
-    <t>ADAM_wd=1e-4_dp=0.25</t>
-  </si>
-  <si>
     <t>ADAM_wd=1e-3_dp=0.1</t>
   </si>
   <si>
-    <t>ADAM_wd=1e-4_dp=0.1</t>
-  </si>
-  <si>
     <t>ADAM_wd=0_dp=0.25</t>
   </si>
   <si>
-    <t>ADAM_wd=1e-2_dp=0.5</t>
-  </si>
-  <si>
-    <t>ADAM_wd=0_dp=0.5</t>
-  </si>
-  <si>
-    <t>ADAM_wd=1e-3_dp=0.5</t>
-  </si>
-  <si>
-    <t>ADAM_wd=1e-4_dp=0.5</t>
-  </si>
-  <si>
     <t>Model_idx</t>
   </si>
   <si>
@@ -142,6 +109,15 @@
   </si>
   <si>
     <t>ADAM_imgaug</t>
+  </si>
+  <si>
+    <t>Extended ImgAug</t>
+  </si>
+  <si>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>0.40</t>
   </si>
 </sst>
 </file>
@@ -165,7 +141,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -198,25 +174,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -241,6 +199,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -337,7 +301,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -345,30 +309,25 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -683,10 +642,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F627C5F-AD9E-4149-A818-2EFAF5E22624}">
-  <dimension ref="A1:M34"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -699,180 +658,192 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="10" t="s">
+      <c r="A1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>16</v>
-      </c>
+      <c r="F1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="24"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1">
+        <f>J3</f>
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <f>J4</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="8" t="b">
+        <f>K5</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0</v>
-      </c>
-      <c r="E2" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="16"/>
+      <c r="I2" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="24"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1">
+        <f>J3</f>
         <v>0</v>
       </c>
       <c r="D3" s="2">
-        <v>0</v>
-      </c>
-      <c r="E3" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>12</v>
+        <f>J4</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="8" t="b">
+        <f>K5</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>8</v>
       </c>
       <c r="G3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="J3" s="18">
-        <v>0</v>
-      </c>
-      <c r="K3" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" s="15">
+        <v>0</v>
+      </c>
+      <c r="K3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="M3" s="21" t="s">
-        <v>7</v>
-      </c>
+      <c r="L3" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="M3" s="24"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>3</v>
+        <v>11</v>
+      </c>
+      <c r="C4" s="3" t="str">
+        <f>K3</f>
+        <v>0.01</v>
       </c>
       <c r="D4" s="2">
-        <v>0</v>
-      </c>
-      <c r="E4" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="J4" s="22">
-        <v>0</v>
-      </c>
-      <c r="K4" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="L4" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="M4" s="25" t="s">
-        <v>8</v>
-      </c>
+        <f>J4</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="8" t="b">
+        <f>K5</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="J4" s="17">
+        <v>0</v>
+      </c>
+      <c r="K4" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="M4" s="24"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>5</v>
+        <v>15</v>
+      </c>
+      <c r="C5" s="4" t="str">
+        <f>L3</f>
+        <v>0.001</v>
       </c>
       <c r="D5" s="2">
-        <v>0</v>
-      </c>
-      <c r="E5" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="J5" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="K5" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="L5" s="29"/>
-      <c r="M5" s="30"/>
+        <f>J4</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="8" t="b">
+        <f>K5</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="K5" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="L5" s="22"/>
+      <c r="M5" s="24"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0</v>
-      </c>
-      <c r="E6" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
+      </c>
+      <c r="C6" s="1">
+        <f>J3</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="5" t="str">
+        <f>K4</f>
+        <v>0.2</v>
+      </c>
+      <c r="E6" s="8" t="b">
+        <f>K5</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
@@ -880,19 +851,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>12</v>
+        <v>16</v>
+      </c>
+      <c r="C7" s="3" t="str">
+        <f>K3</f>
+        <v>0.01</v>
+      </c>
+      <c r="D7" s="5" t="str">
+        <f>K4</f>
+        <v>0.2</v>
+      </c>
+      <c r="E7" s="8" t="b">
+        <f>K5</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
@@ -900,19 +874,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>12</v>
+        <v>20</v>
+      </c>
+      <c r="C8" s="4" t="str">
+        <f>L3</f>
+        <v>0.001</v>
+      </c>
+      <c r="D8" s="5" t="str">
+        <f>K4</f>
+        <v>0.2</v>
+      </c>
+      <c r="E8" s="8" t="b">
+        <f>K5</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
@@ -920,19 +897,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>12</v>
+        <v>21</v>
+      </c>
+      <c r="C9" s="1">
+        <f>J3</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="23" t="str">
+        <f>L4</f>
+        <v>0.40</v>
+      </c>
+      <c r="E9" s="8" t="b">
+        <f>K5</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
@@ -940,19 +920,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>12</v>
+        <v>18</v>
+      </c>
+      <c r="C10" s="3" t="str">
+        <f>K3</f>
+        <v>0.01</v>
+      </c>
+      <c r="D10" s="23" t="str">
+        <f>L4</f>
+        <v>0.40</v>
+      </c>
+      <c r="E10" s="8" t="b">
+        <f>K5</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
@@ -960,19 +943,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="1">
-        <v>0</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>12</v>
+        <v>19</v>
+      </c>
+      <c r="C11" s="4" t="str">
+        <f>L3</f>
+        <v>0.001</v>
+      </c>
+      <c r="D11" s="23" t="str">
+        <f>L4</f>
+        <v>0.40</v>
+      </c>
+      <c r="E11" s="8" t="b">
+        <f>K5</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
@@ -980,19 +966,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>12</v>
+        <v>24</v>
+      </c>
+      <c r="C12" s="1">
+        <f>J3</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="2">
+        <f>J4</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="6" t="b">
+        <f>J5</f>
+        <v>1</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
@@ -1000,19 +989,22 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="C13" s="3" t="str">
+        <f>K3</f>
+        <v>0.01</v>
+      </c>
+      <c r="D13" s="2">
+        <f>J4</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="6" t="b">
+        <f>J5</f>
+        <v>1</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
@@ -1020,19 +1012,22 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="C14" s="4" t="str">
+        <f>L3</f>
+        <v>0.001</v>
+      </c>
+      <c r="D14" s="2">
+        <f>J4</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="6" t="b">
+        <f>J5</f>
+        <v>1</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
@@ -1040,19 +1035,21 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C15" s="1">
-        <v>0</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>12</v>
+        <f>J3</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="6" t="b">
+        <f>J5</f>
+        <v>1</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
@@ -1060,19 +1057,22 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>12</v>
+        <v>16</v>
+      </c>
+      <c r="C16" s="3" t="str">
+        <f>K3</f>
+        <v>0.01</v>
+      </c>
+      <c r="D16" s="5" t="str">
+        <f>K4</f>
+        <v>0.2</v>
+      </c>
+      <c r="E16" s="6" t="b">
+        <f>J5</f>
+        <v>1</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
@@ -1080,19 +1080,22 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>12</v>
+        <v>20</v>
+      </c>
+      <c r="C17" s="4" t="str">
+        <f>L3</f>
+        <v>0.001</v>
+      </c>
+      <c r="D17" s="5" t="str">
+        <f>K4</f>
+        <v>0.2</v>
+      </c>
+      <c r="E17" s="6" t="b">
+        <f>J5</f>
+        <v>1</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
@@ -1100,19 +1103,22 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>12</v>
+        <v>21</v>
+      </c>
+      <c r="C18" s="1">
+        <f>J3</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="23" t="str">
+        <f>L4</f>
+        <v>0.40</v>
+      </c>
+      <c r="E18" s="6" t="b">
+        <f>J5</f>
+        <v>1</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
@@ -1120,19 +1126,22 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="1">
-        <v>0</v>
-      </c>
-      <c r="D19" s="2">
-        <v>0</v>
-      </c>
-      <c r="E19" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>12</v>
+        <v>18</v>
+      </c>
+      <c r="C19" s="3" t="str">
+        <f>K3</f>
+        <v>0.01</v>
+      </c>
+      <c r="D19" s="23" t="str">
+        <f>L4</f>
+        <v>0.40</v>
+      </c>
+      <c r="E19" s="6" t="b">
+        <f>J5</f>
+        <v>1</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
@@ -1140,299 +1149,22 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D20" s="2">
-        <v>0</v>
-      </c>
-      <c r="E20" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="2">
-        <v>0</v>
-      </c>
-      <c r="E21" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="2">
-        <v>0</v>
-      </c>
-      <c r="E22" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="1">
-        <v>0</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E23" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E24" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="F24" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E25" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="F25" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E26" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="F26" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27" s="1">
-        <v>0</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E27" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="F27" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
-        <v>23</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E28" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="F28" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
-        <v>24</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E29" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="F29" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E30" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="F30" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C31" s="1">
-        <v>0</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E31" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="F31" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32" t="s">
-        <v>29</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="F32" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33" t="s">
-        <v>31</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E33" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="F33" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34" t="s">
-        <v>32</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E34" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="F34" s="12" t="s">
-        <v>12</v>
+      <c r="C20" s="4" t="str">
+        <f>L3</f>
+        <v>0.001</v>
+      </c>
+      <c r="D20" s="23" t="str">
+        <f>L4</f>
+        <v>0.40</v>
+      </c>
+      <c r="E20" s="6" t="b">
+        <f>J5</f>
+        <v>1</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/references/Experiment_setup.xlsx
+++ b/references/Experiment_setup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Caroline\Documents\Master-Thesis\Fairness-oriented-interpretability-of-predictive-algorithms\references\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F374F28B-B89A-4013-AFB1-7F518E50C212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60EA5451-7CD9-44C8-9F59-FA25A7A637E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{08E31009-6740-4219-8040-B32DB69AA2DD}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="39">
   <si>
     <t>Weight_decay</t>
   </si>
@@ -69,9 +69,6 @@
     <t>SGD</t>
   </si>
   <si>
-    <t>ADAM_wd_1e-2</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
@@ -81,36 +78,9 @@
     <t xml:space="preserve">Done </t>
   </si>
   <si>
-    <t>ADAM_wd_1e-3</t>
-  </si>
-  <si>
-    <t>ADAM_wd=1e-2_dp=0.1</t>
-  </si>
-  <si>
-    <t>ADAM_wd=0_dp=0.1</t>
-  </si>
-  <si>
-    <t>ADAM_wd=1e-2_dp=0.25</t>
-  </si>
-  <si>
-    <t>ADAM_wd=1e-3_dp=0.25</t>
-  </si>
-  <si>
-    <t>ADAM_wd=1e-3_dp=0.1</t>
-  </si>
-  <si>
-    <t>ADAM_wd=0_dp=0.25</t>
-  </si>
-  <si>
-    <t>Model_idx</t>
-  </si>
-  <si>
     <t>Parameter Options</t>
   </si>
   <si>
-    <t>ADAM_imgaug</t>
-  </si>
-  <si>
     <t>Extended ImgAug</t>
   </si>
   <si>
@@ -118,6 +88,69 @@
   </si>
   <si>
     <t>0.40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sh </t>
+  </si>
+  <si>
+    <t>adam_wd=1e-2</t>
+  </si>
+  <si>
+    <t>adam_wd=1e-3</t>
+  </si>
+  <si>
+    <t>adam_dp=2e-1</t>
+  </si>
+  <si>
+    <t>adam_wd=1e-2_dp=2e-1</t>
+  </si>
+  <si>
+    <t>adam_wd=1e-3_dp=2e-1</t>
+  </si>
+  <si>
+    <t>adam_dp=4e-1</t>
+  </si>
+  <si>
+    <t>sh - on HPC</t>
+  </si>
+  <si>
+    <t>sh</t>
+  </si>
+  <si>
+    <t>adam_wd=1e-2_dp=4e-1</t>
+  </si>
+  <si>
+    <t>adam_wd=1e-3_dp=4e-1</t>
+  </si>
+  <si>
+    <t>adam_imgaug</t>
+  </si>
+  <si>
+    <t>adam_wd=1e-2_imgaug</t>
+  </si>
+  <si>
+    <t>adam_wd_1e-3_imgaug</t>
+  </si>
+  <si>
+    <t>adam_dp=2e-1_imgaug</t>
+  </si>
+  <si>
+    <t>adam_wd=1e-2_dp=2e-1_imgaug</t>
+  </si>
+  <si>
+    <t>idx</t>
+  </si>
+  <si>
+    <t>adam_wd=1e-3_dp=2e-1_imgaug</t>
+  </si>
+  <si>
+    <t>adam_dp=4e-1_imgaug</t>
+  </si>
+  <si>
+    <t>adam_wd=1e-2_dp=4e-1_imgaug</t>
+  </si>
+  <si>
+    <t>adam_wd=1e-3_dp=4e-1_imgaug</t>
   </si>
 </sst>
 </file>
@@ -645,21 +678,22 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.7265625" customWidth="1"/>
+    <col min="2" max="2" width="28.90625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.54296875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.90625" customWidth="1"/>
+    <col min="7" max="7" width="10.26953125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>5</v>
@@ -677,7 +711,7 @@
         <v>7</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M1" s="24"/>
     </row>
@@ -704,10 +738,10 @@
         <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="J2" s="12"/>
       <c r="K2" s="12"/>
@@ -737,7 +771,7 @@
         <v>8</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I3" s="14" t="s">
         <v>0</v>
@@ -758,7 +792,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C4" s="3" t="str">
         <f>K3</f>
@@ -775,6 +809,9 @@
       <c r="F4" s="9" t="s">
         <v>8</v>
       </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
       <c r="I4" s="14" t="s">
         <v>1</v>
       </c>
@@ -782,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="K4" s="18" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L4" s="23" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="M4" s="24"/>
     </row>
@@ -794,7 +831,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="4" t="str">
         <f>L3</f>
@@ -811,8 +848,11 @@
       <c r="F5" s="9" t="s">
         <v>8</v>
       </c>
+      <c r="G5" t="s">
+        <v>18</v>
+      </c>
       <c r="I5" s="19" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J5" s="20" t="b">
         <v>1</v>
@@ -828,7 +868,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C6" s="1">
         <f>J3</f>
@@ -845,13 +885,16 @@
       <c r="F6" s="9" t="s">
         <v>8</v>
       </c>
+      <c r="G6" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C7" s="3" t="str">
         <f>K3</f>
@@ -868,13 +911,16 @@
       <c r="F7" s="9" t="s">
         <v>8</v>
       </c>
+      <c r="G7" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C8" s="4" t="str">
         <f>L3</f>
@@ -891,13 +937,16 @@
       <c r="F8" s="9" t="s">
         <v>8</v>
       </c>
+      <c r="G8" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C9" s="1">
         <f>J3</f>
@@ -914,13 +963,16 @@
       <c r="F9" s="9" t="s">
         <v>8</v>
       </c>
+      <c r="G9" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C10" s="3" t="str">
         <f>K3</f>
@@ -937,13 +989,16 @@
       <c r="F10" s="9" t="s">
         <v>8</v>
       </c>
+      <c r="G10" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C11" s="4" t="str">
         <f>L3</f>
@@ -960,13 +1015,16 @@
       <c r="F11" s="9" t="s">
         <v>8</v>
       </c>
+      <c r="G11" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C12" s="1">
         <f>J3</f>
@@ -983,13 +1041,16 @@
       <c r="F12" s="9" t="s">
         <v>8</v>
       </c>
+      <c r="G12" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="C13" s="3" t="str">
         <f>K3</f>
@@ -1006,13 +1067,16 @@
       <c r="F13" s="9" t="s">
         <v>8</v>
       </c>
+      <c r="G13" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="C14" s="4" t="str">
         <f>L3</f>
@@ -1029,20 +1093,23 @@
       <c r="F14" s="9" t="s">
         <v>8</v>
       </c>
+      <c r="G14" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="C15" s="1">
         <f>J3</f>
         <v>0</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E15" s="6" t="b">
         <f>J5</f>
@@ -1051,13 +1118,16 @@
       <c r="F15" s="9" t="s">
         <v>8</v>
       </c>
+      <c r="G15" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="C16" s="3" t="str">
         <f>K3</f>
@@ -1074,13 +1144,16 @@
       <c r="F16" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="C17" s="4" t="str">
         <f>L3</f>
@@ -1097,13 +1170,16 @@
       <c r="F17" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C18" s="1">
         <f>J3</f>
@@ -1120,13 +1196,16 @@
       <c r="F18" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="C19" s="3" t="str">
         <f>K3</f>
@@ -1143,13 +1222,16 @@
       <c r="F19" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C20" s="4" t="str">
         <f>L3</f>
@@ -1165,6 +1247,9 @@
       </c>
       <c r="F20" s="9" t="s">
         <v>8</v>
+      </c>
+      <c r="G20" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/references/Experiment_setup.xlsx
+++ b/references/Experiment_setup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Caroline\Documents\Master-Thesis\Fairness-oriented-interpretability-of-predictive-algorithms\references\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60EA5451-7CD9-44C8-9F59-FA25A7A637E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCF7AFCD-DFA7-4874-94E5-5D16C2AE0029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{08E31009-6740-4219-8040-B32DB69AA2DD}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="40">
   <si>
     <t>Weight_decay</t>
   </si>
@@ -111,9 +111,6 @@
     <t>adam_dp=4e-1</t>
   </si>
   <si>
-    <t>sh - on HPC</t>
-  </si>
-  <si>
     <t>sh</t>
   </si>
   <si>
@@ -151,6 +148,12 @@
   </si>
   <si>
     <t>adam_wd=1e-3_dp=4e-1_imgaug</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HPC </t>
+  </si>
+  <si>
+    <t>HPC</t>
   </si>
 </sst>
 </file>
@@ -678,7 +681,7 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -693,7 +696,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>5</v>
@@ -810,7 +813,7 @@
         <v>8</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="I4" s="14" t="s">
         <v>1</v>
@@ -849,7 +852,7 @@
         <v>8</v>
       </c>
       <c r="G5" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="I5" s="19" t="s">
         <v>15</v>
@@ -886,7 +889,7 @@
         <v>8</v>
       </c>
       <c r="G6" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
@@ -912,7 +915,7 @@
         <v>8</v>
       </c>
       <c r="G7" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
@@ -938,7 +941,7 @@
         <v>8</v>
       </c>
       <c r="G8" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
@@ -964,7 +967,7 @@
         <v>8</v>
       </c>
       <c r="G9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
@@ -972,7 +975,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" s="3" t="str">
         <f>K3</f>
@@ -990,7 +993,7 @@
         <v>8</v>
       </c>
       <c r="G10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
@@ -998,7 +1001,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" s="4" t="str">
         <f>L3</f>
@@ -1016,7 +1019,7 @@
         <v>8</v>
       </c>
       <c r="G11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
@@ -1024,7 +1027,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12" s="1">
         <f>J3</f>
@@ -1042,7 +1045,7 @@
         <v>8</v>
       </c>
       <c r="G12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
@@ -1050,7 +1053,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C13" s="3" t="str">
         <f>K3</f>
@@ -1076,7 +1079,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C14" s="4" t="str">
         <f>L3</f>
@@ -1094,7 +1097,7 @@
         <v>8</v>
       </c>
       <c r="G14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
@@ -1102,7 +1105,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C15" s="1">
         <f>J3</f>
@@ -1119,7 +1122,7 @@
         <v>8</v>
       </c>
       <c r="G15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
@@ -1127,7 +1130,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C16" s="3" t="str">
         <f>K3</f>
@@ -1145,7 +1148,7 @@
         <v>8</v>
       </c>
       <c r="G16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
@@ -1153,7 +1156,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C17" s="4" t="str">
         <f>L3</f>
@@ -1171,7 +1174,7 @@
         <v>8</v>
       </c>
       <c r="G17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
@@ -1179,7 +1182,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C18" s="1">
         <f>J3</f>
@@ -1197,7 +1200,7 @@
         <v>8</v>
       </c>
       <c r="G18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
@@ -1205,7 +1208,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C19" s="3" t="str">
         <f>K3</f>
@@ -1223,7 +1226,7 @@
         <v>8</v>
       </c>
       <c r="G19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
@@ -1231,7 +1234,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C20" s="4" t="str">
         <f>L3</f>
@@ -1249,7 +1252,7 @@
         <v>8</v>
       </c>
       <c r="G20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/references/Experiment_setup.xlsx
+++ b/references/Experiment_setup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Caroline\Documents\Master-Thesis\Fairness-oriented-interpretability-of-predictive-algorithms\references\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCF7AFCD-DFA7-4874-94E5-5D16C2AE0029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88EDE935-074C-41EE-9B83-0F2FB4BE39DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{08E31009-6740-4219-8040-B32DB69AA2DD}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="43">
   <si>
     <t>Weight_decay</t>
   </si>
@@ -154,6 +154,15 @@
   </si>
   <si>
     <t>HPC</t>
+  </si>
+  <si>
+    <t>Who</t>
+  </si>
+  <si>
+    <t>EZ</t>
+  </si>
+  <si>
+    <t>CF</t>
   </si>
 </sst>
 </file>
@@ -681,7 +690,7 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -716,6 +725,9 @@
       <c r="G1" s="7" t="s">
         <v>11</v>
       </c>
+      <c r="H1" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="M1" s="24"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
@@ -742,6 +754,9 @@
       </c>
       <c r="G2" t="s">
         <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>41</v>
       </c>
       <c r="I2" s="11" t="s">
         <v>14</v>
@@ -776,6 +791,9 @@
       <c r="G3" t="s">
         <v>13</v>
       </c>
+      <c r="H3" t="s">
+        <v>41</v>
+      </c>
       <c r="I3" s="14" t="s">
         <v>0</v>
       </c>
@@ -815,6 +833,9 @@
       <c r="G4" t="s">
         <v>38</v>
       </c>
+      <c r="H4" t="s">
+        <v>42</v>
+      </c>
       <c r="I4" s="14" t="s">
         <v>1</v>
       </c>
@@ -854,6 +875,9 @@
       <c r="G5" t="s">
         <v>39</v>
       </c>
+      <c r="H5" t="s">
+        <v>42</v>
+      </c>
       <c r="I5" s="19" t="s">
         <v>15</v>
       </c>
@@ -891,6 +915,9 @@
       <c r="G6" t="s">
         <v>39</v>
       </c>
+      <c r="H6" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7">
@@ -917,6 +944,9 @@
       <c r="G7" t="s">
         <v>39</v>
       </c>
+      <c r="H7" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8">
@@ -942,6 +972,9 @@
       </c>
       <c r="G8" t="s">
         <v>39</v>
+      </c>
+      <c r="H8" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">

--- a/references/Experiment_setup.xlsx
+++ b/references/Experiment_setup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Caroline\Documents\Master-Thesis\Fairness-oriented-interpretability-of-predictive-algorithms\references\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88EDE935-074C-41EE-9B83-0F2FB4BE39DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A85E148-7C5B-4649-A8B4-D646F0C16543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{08E31009-6740-4219-8040-B32DB69AA2DD}"/>
   </bookViews>
@@ -42,9 +42,6 @@
     <t>Dropout</t>
   </si>
   <si>
-    <t>ImAug</t>
-  </si>
-  <si>
     <t>0.01</t>
   </si>
   <si>
@@ -163,6 +160,9 @@
   </si>
   <si>
     <t>CF</t>
+  </si>
+  <si>
+    <t>ImgAug</t>
   </si>
 </sst>
 </file>
@@ -690,7 +690,7 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -705,10 +705,10 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>0</v>
@@ -717,16 +717,16 @@
         <v>1</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M1" s="24"/>
     </row>
@@ -735,7 +735,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1">
         <f>J3</f>
@@ -750,16 +750,16 @@
         <v>0</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J2" s="12"/>
       <c r="K2" s="12"/>
@@ -771,7 +771,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1">
         <f>J3</f>
@@ -786,13 +786,13 @@
         <v>0</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I3" s="14" t="s">
         <v>0</v>
@@ -801,10 +801,10 @@
         <v>0</v>
       </c>
       <c r="K3" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="25" t="s">
         <v>3</v>
-      </c>
-      <c r="L3" s="25" t="s">
-        <v>4</v>
       </c>
       <c r="M3" s="24"/>
     </row>
@@ -813,7 +813,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" s="3" t="str">
         <f>K3</f>
@@ -828,13 +828,13 @@
         <v>0</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I4" s="14" t="s">
         <v>1</v>
@@ -843,10 +843,10 @@
         <v>0</v>
       </c>
       <c r="K4" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="23" t="s">
         <v>16</v>
-      </c>
-      <c r="L4" s="23" t="s">
-        <v>17</v>
       </c>
       <c r="M4" s="24"/>
     </row>
@@ -855,7 +855,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="4" t="str">
         <f>L3</f>
@@ -870,16 +870,16 @@
         <v>0</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J5" s="20" t="b">
         <v>1</v>
@@ -895,7 +895,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" s="1">
         <f>J3</f>
@@ -910,13 +910,13 @@
         <v>0</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
@@ -924,7 +924,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" s="3" t="str">
         <f>K3</f>
@@ -939,13 +939,13 @@
         <v>0</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
@@ -953,7 +953,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" s="4" t="str">
         <f>L3</f>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
@@ -982,7 +982,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" s="1">
         <f>J3</f>
@@ -997,10 +997,10 @@
         <v>0</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
@@ -1008,7 +1008,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" s="3" t="str">
         <f>K3</f>
@@ -1023,10 +1023,10 @@
         <v>0</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
@@ -1034,7 +1034,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" s="4" t="str">
         <f>L3</f>
@@ -1049,10 +1049,10 @@
         <v>0</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
@@ -1060,7 +1060,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" s="1">
         <f>J3</f>
@@ -1075,10 +1075,10 @@
         <v>1</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
@@ -1086,7 +1086,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C13" s="3" t="str">
         <f>K3</f>
@@ -1101,10 +1101,10 @@
         <v>1</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
@@ -1112,7 +1112,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="4" t="str">
         <f>L3</f>
@@ -1127,10 +1127,10 @@
         <v>1</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
@@ -1138,24 +1138,24 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C15" s="1">
         <f>J3</f>
         <v>0</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E15" s="6" t="b">
         <f>J5</f>
         <v>1</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
@@ -1163,7 +1163,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C16" s="3" t="str">
         <f>K3</f>
@@ -1178,10 +1178,10 @@
         <v>1</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
@@ -1189,7 +1189,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C17" s="4" t="str">
         <f>L3</f>
@@ -1204,10 +1204,10 @@
         <v>1</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
@@ -1215,7 +1215,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C18" s="1">
         <f>J3</f>
@@ -1230,10 +1230,10 @@
         <v>1</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
@@ -1241,7 +1241,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C19" s="3" t="str">
         <f>K3</f>
@@ -1256,10 +1256,10 @@
         <v>1</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
@@ -1267,7 +1267,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C20" s="4" t="str">
         <f>L3</f>
@@ -1282,10 +1282,10 @@
         <v>1</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/references/Experiment_setup.xlsx
+++ b/references/Experiment_setup.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Caroline\Documents\Master-Thesis\Fairness-oriented-interpretability-of-predictive-algorithms\references\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elisa\Documents\DTU\Fairness-oriented-interpretability-of-predictive-algorithms\references\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A85E148-7C5B-4649-A8B4-D646F0C16543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{819BF4B5-8E91-4158-B8DF-A806201ED0CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{08E31009-6740-4219-8040-B32DB69AA2DD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{08E31009-6740-4219-8040-B32DB69AA2DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="41">
   <si>
     <t>Weight_decay</t>
   </si>
@@ -145,12 +145,6 @@
   </si>
   <si>
     <t>adam_wd=1e-3_dp=4e-1_imgaug</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HPC </t>
-  </si>
-  <si>
-    <t>HPC</t>
   </si>
   <si>
     <t>Who</t>
@@ -391,7 +385,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -690,20 +684,20 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.7265625" customWidth="1"/>
-    <col min="2" max="2" width="28.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.90625" customWidth="1"/>
-    <col min="7" max="7" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.77734375" customWidth="1"/>
+    <col min="2" max="2" width="28.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" customWidth="1"/>
+    <col min="7" max="7" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>32</v>
       </c>
@@ -717,7 +711,7 @@
         <v>1</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>6</v>
@@ -726,11 +720,11 @@
         <v>10</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M1" s="24"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -756,7 +750,7 @@
         <v>11</v>
       </c>
       <c r="H2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I2" s="11" t="s">
         <v>13</v>
@@ -766,7 +760,7 @@
       <c r="L2" s="13"/>
       <c r="M2" s="24"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -792,7 +786,7 @@
         <v>12</v>
       </c>
       <c r="H3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I3" s="14" t="s">
         <v>0</v>
@@ -808,7 +802,7 @@
       </c>
       <c r="M3" s="24"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -831,10 +825,10 @@
         <v>7</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="H4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I4" s="14" t="s">
         <v>1</v>
@@ -850,7 +844,7 @@
       </c>
       <c r="M4" s="24"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -873,10 +867,10 @@
         <v>7</v>
       </c>
       <c r="G5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" t="s">
         <v>38</v>
-      </c>
-      <c r="H5" t="s">
-        <v>41</v>
       </c>
       <c r="I5" s="19" t="s">
         <v>14</v>
@@ -890,7 +884,7 @@
       <c r="L5" s="22"/>
       <c r="M5" s="24"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -913,13 +907,13 @@
         <v>7</v>
       </c>
       <c r="G6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" t="s">
         <v>38</v>
       </c>
-      <c r="H6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -942,13 +936,13 @@
         <v>7</v>
       </c>
       <c r="G7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" t="s">
         <v>38</v>
       </c>
-      <c r="H7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -971,13 +965,13 @@
         <v>7</v>
       </c>
       <c r="G8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" t="s">
         <v>38</v>
       </c>
-      <c r="H8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1002,8 +996,11 @@
       <c r="G9" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1028,8 +1025,11 @@
       <c r="G10" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1054,8 +1054,11 @@
       <c r="G11" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1080,8 +1083,11 @@
       <c r="G12" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1106,8 +1112,11 @@
       <c r="G13" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1132,8 +1141,11 @@
       <c r="G14" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1157,8 +1169,11 @@
       <c r="G15" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1183,8 +1198,11 @@
       <c r="G16" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1209,8 +1227,11 @@
       <c r="G17" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1235,8 +1256,11 @@
       <c r="G18" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1261,8 +1285,11 @@
       <c r="G19" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1286,6 +1313,9 @@
       </c>
       <c r="G20" t="s">
         <v>24</v>
+      </c>
+      <c r="H20" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
